--- a/natmiOut/OldD2/LR-pairs_lrc2p/Apod-Lepr.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Apod-Lepr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.10745463351527</v>
+        <v>3.170749</v>
       </c>
       <c r="H2">
-        <v>2.10745463351527</v>
+        <v>6.341498</v>
       </c>
       <c r="I2">
-        <v>0.02228760972673566</v>
+        <v>0.02706244618217393</v>
       </c>
       <c r="J2">
-        <v>0.02228760972673566</v>
+        <v>0.0207101873791657</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.086332356905009</v>
+        <v>8.104922999999999</v>
       </c>
       <c r="N2">
-        <v>8.086332356905009</v>
+        <v>16.209846</v>
       </c>
       <c r="O2">
-        <v>0.6841231130944074</v>
+        <v>0.6680996714163102</v>
       </c>
       <c r="P2">
-        <v>0.6841231130944074</v>
+        <v>0.5878813544784527</v>
       </c>
       <c r="Q2">
-        <v>17.04157859370392</v>
+        <v>25.698676497327</v>
       </c>
       <c r="R2">
-        <v>17.04157859370392</v>
+        <v>102.794705989308</v>
       </c>
       <c r="S2">
-        <v>0.0152474689496876</v>
+        <v>0.01808041140203198</v>
       </c>
       <c r="T2">
-        <v>0.0152474689496876</v>
+        <v>0.01217513300796649</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.10745463351527</v>
+        <v>3.170749</v>
       </c>
       <c r="H3">
-        <v>2.10745463351527</v>
+        <v>6.341498</v>
       </c>
       <c r="I3">
-        <v>0.02228760972673566</v>
+        <v>0.02706244618217393</v>
       </c>
       <c r="J3">
-        <v>0.02228760972673566</v>
+        <v>0.0207101873791657</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.40940023549704</v>
+        <v>0.4712683333333333</v>
       </c>
       <c r="N3">
-        <v>0.40940023549704</v>
+        <v>1.413805</v>
       </c>
       <c r="O3">
-        <v>0.03463624190151608</v>
+        <v>0.03884728067730096</v>
       </c>
       <c r="P3">
-        <v>0.03463624190151608</v>
+        <v>0.05127436734244167</v>
       </c>
       <c r="Q3">
-        <v>0.8627924232604798</v>
+        <v>1.494273596648333</v>
       </c>
       <c r="R3">
-        <v>0.8627924232604798</v>
+        <v>8.965641579889999</v>
       </c>
       <c r="S3">
-        <v>0.000771959041901799</v>
+        <v>0.001051302442653262</v>
       </c>
       <c r="T3">
-        <v>0.000771959041901799</v>
+        <v>0.001061901755410141</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.10745463351527</v>
+        <v>3.170749</v>
       </c>
       <c r="H4">
-        <v>2.10745463351527</v>
+        <v>6.341498</v>
       </c>
       <c r="I4">
-        <v>0.02228760972673566</v>
+        <v>0.02706244618217393</v>
       </c>
       <c r="J4">
-        <v>0.02228760972673566</v>
+        <v>0.0207101873791657</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.61121782434689</v>
+        <v>2.839444333333333</v>
       </c>
       <c r="N4">
-        <v>2.61121782434689</v>
+        <v>8.518333</v>
       </c>
       <c r="O4">
-        <v>0.2209152911498101</v>
+        <v>0.2340592040300573</v>
       </c>
       <c r="P4">
-        <v>0.2209152911498101</v>
+        <v>0.3089337888798266</v>
       </c>
       <c r="Q4">
-        <v>5.503023103037517</v>
+        <v>9.003165280472333</v>
       </c>
       <c r="R4">
-        <v>5.503023103037517</v>
+        <v>54.018991682834</v>
       </c>
       <c r="S4">
-        <v>0.004923673791815147</v>
+        <v>0.006334214612505893</v>
       </c>
       <c r="T4">
-        <v>0.004923673791815147</v>
+        <v>0.006398076655456826</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.10745463351527</v>
+        <v>3.170749</v>
       </c>
       <c r="H5">
-        <v>2.10745463351527</v>
+        <v>6.341498</v>
       </c>
       <c r="I5">
-        <v>0.02228760972673566</v>
+        <v>0.02706244618217393</v>
       </c>
       <c r="J5">
-        <v>0.02228760972673566</v>
+        <v>0.0207101873791657</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.713045432140197</v>
+        <v>0.7156724999999999</v>
       </c>
       <c r="N5">
-        <v>0.713045432140197</v>
+        <v>1.431345</v>
       </c>
       <c r="O5">
-        <v>0.06032535385426639</v>
+        <v>0.05899384387633162</v>
       </c>
       <c r="P5">
-        <v>0.06032535385426639</v>
+        <v>0.05191048929927902</v>
       </c>
       <c r="Q5">
-        <v>1.502710899870756</v>
+        <v>2.2692178637025</v>
       </c>
       <c r="R5">
-        <v>1.502710899870756</v>
+        <v>9.076871454809998</v>
       </c>
       <c r="S5">
-        <v>0.001344507943331118</v>
+        <v>0.001596517724982795</v>
       </c>
       <c r="T5">
-        <v>0.001344507943331118</v>
+        <v>0.001075075960332244</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +776,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>54.5977742483894</v>
+        <v>67.15926</v>
       </c>
       <c r="H6">
-        <v>54.5977742483894</v>
+        <v>201.47778</v>
       </c>
       <c r="I6">
-        <v>0.5774045452958522</v>
+        <v>0.5732064756259881</v>
       </c>
       <c r="J6">
-        <v>0.5774045452958522</v>
+        <v>0.6579900484930097</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.086332356905009</v>
+        <v>8.104922999999999</v>
       </c>
       <c r="N6">
-        <v>8.086332356905009</v>
+        <v>16.209846</v>
       </c>
       <c r="O6">
-        <v>0.6841231130944074</v>
+        <v>0.6680996714163102</v>
       </c>
       <c r="P6">
-        <v>0.6841231130944074</v>
+        <v>0.5878813544784527</v>
       </c>
       <c r="Q6">
-        <v>441.4957485197463</v>
+        <v>544.32063103698</v>
       </c>
       <c r="R6">
-        <v>441.4957485197463</v>
+        <v>3265.92378622188</v>
       </c>
       <c r="S6">
-        <v>0.3950157950426592</v>
+        <v>0.3829590580194239</v>
       </c>
       <c r="T6">
-        <v>0.3950157950426592</v>
+        <v>0.3868200809414133</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +838,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>54.5977742483894</v>
+        <v>67.15926</v>
       </c>
       <c r="H7">
-        <v>54.5977742483894</v>
+        <v>201.47778</v>
       </c>
       <c r="I7">
-        <v>0.5774045452958522</v>
+        <v>0.5732064756259881</v>
       </c>
       <c r="J7">
-        <v>0.5774045452958522</v>
+        <v>0.6579900484930097</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.40940023549704</v>
+        <v>0.4712683333333333</v>
       </c>
       <c r="N7">
-        <v>0.40940023549704</v>
+        <v>1.413805</v>
       </c>
       <c r="O7">
-        <v>0.03463624190151608</v>
+        <v>0.03884728067730096</v>
       </c>
       <c r="P7">
-        <v>0.03463624190151608</v>
+        <v>0.05127436734244167</v>
       </c>
       <c r="Q7">
-        <v>22.35234163490485</v>
+        <v>31.6500325281</v>
       </c>
       <c r="R7">
-        <v>22.35234163490485</v>
+        <v>284.8502927529</v>
       </c>
       <c r="S7">
-        <v>0.01999912350590203</v>
+        <v>0.02226751284468923</v>
       </c>
       <c r="T7">
-        <v>0.01999912350590203</v>
+        <v>0.03373802345410159</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>54.5977742483894</v>
+        <v>67.15926</v>
       </c>
       <c r="H8">
-        <v>54.5977742483894</v>
+        <v>201.47778</v>
       </c>
       <c r="I8">
-        <v>0.5774045452958522</v>
+        <v>0.5732064756259881</v>
       </c>
       <c r="J8">
-        <v>0.5774045452958522</v>
+        <v>0.6579900484930097</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.61121782434689</v>
+        <v>2.839444333333333</v>
       </c>
       <c r="N8">
-        <v>2.61121782434689</v>
+        <v>8.518333</v>
       </c>
       <c r="O8">
-        <v>0.2209152911498101</v>
+        <v>0.2340592040300573</v>
       </c>
       <c r="P8">
-        <v>0.2209152911498101</v>
+        <v>0.3089337888798266</v>
       </c>
       <c r="Q8">
-        <v>142.566681287062</v>
+        <v>190.69498023786</v>
       </c>
       <c r="R8">
-        <v>142.566681287062</v>
+        <v>1716.25482214074</v>
       </c>
       <c r="S8">
-        <v>0.1275574932352569</v>
+        <v>0.1341642514298932</v>
       </c>
       <c r="T8">
-        <v>0.1275574932352569</v>
+        <v>0.2032753587261663</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>54.5977742483894</v>
+        <v>67.15926</v>
       </c>
       <c r="H9">
-        <v>54.5977742483894</v>
+        <v>201.47778</v>
       </c>
       <c r="I9">
-        <v>0.5774045452958522</v>
+        <v>0.5732064756259881</v>
       </c>
       <c r="J9">
-        <v>0.5774045452958522</v>
+        <v>0.6579900484930097</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.713045432140197</v>
+        <v>0.7156724999999999</v>
       </c>
       <c r="N9">
-        <v>0.713045432140197</v>
+        <v>1.431345</v>
       </c>
       <c r="O9">
-        <v>0.06032535385426639</v>
+        <v>0.05899384387633162</v>
       </c>
       <c r="P9">
-        <v>0.06032535385426639</v>
+        <v>0.05191048929927902</v>
       </c>
       <c r="Q9">
-        <v>38.93069353283574</v>
+        <v>48.06403550234999</v>
       </c>
       <c r="R9">
-        <v>38.93069353283574</v>
+        <v>288.3842130140999</v>
       </c>
       <c r="S9">
-        <v>0.03483213351203406</v>
+        <v>0.03381565333198183</v>
       </c>
       <c r="T9">
-        <v>0.03483213351203406</v>
+        <v>0.03415658537132846</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1024,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>2.2078336425022</v>
+        <v>0.382301</v>
       </c>
       <c r="H10">
-        <v>2.2078336425022</v>
+        <v>1.146903</v>
       </c>
       <c r="I10">
-        <v>0.02334917856977428</v>
+        <v>0.003262951510160935</v>
       </c>
       <c r="J10">
-        <v>0.02334917856977428</v>
+        <v>0.003745578100904121</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.086332356905009</v>
+        <v>8.104922999999999</v>
       </c>
       <c r="N10">
-        <v>8.086332356905009</v>
+        <v>16.209846</v>
       </c>
       <c r="O10">
-        <v>0.6841231130944074</v>
+        <v>0.6680996714163102</v>
       </c>
       <c r="P10">
-        <v>0.6841231130944074</v>
+        <v>0.5878813544784527</v>
       </c>
       <c r="Q10">
-        <v>17.85327662202899</v>
+        <v>3.098520167823</v>
       </c>
       <c r="R10">
-        <v>17.85327662202899</v>
+        <v>18.591121006938</v>
       </c>
       <c r="S10">
-        <v>0.0159737127313512</v>
+        <v>0.002179976831785874</v>
       </c>
       <c r="T10">
-        <v>0.0159737127313512</v>
+        <v>0.002201955527264345</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1086,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>2.2078336425022</v>
+        <v>0.382301</v>
       </c>
       <c r="H11">
-        <v>2.2078336425022</v>
+        <v>1.146903</v>
       </c>
       <c r="I11">
-        <v>0.02334917856977428</v>
+        <v>0.003262951510160935</v>
       </c>
       <c r="J11">
-        <v>0.02334917856977428</v>
+        <v>0.003745578100904121</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.40940023549704</v>
+        <v>0.4712683333333333</v>
       </c>
       <c r="N11">
-        <v>0.40940023549704</v>
+        <v>1.413805</v>
       </c>
       <c r="O11">
-        <v>0.03463624190151608</v>
+        <v>0.03884728067730096</v>
       </c>
       <c r="P11">
-        <v>0.03463624190151608</v>
+        <v>0.05127436734244167</v>
       </c>
       <c r="Q11">
-        <v>0.9038876131786883</v>
+        <v>0.1801663551016667</v>
       </c>
       <c r="R11">
-        <v>0.9038876131786883</v>
+        <v>1.621497195915</v>
       </c>
       <c r="S11">
-        <v>0.000808727797144397</v>
+        <v>0.0001267567931516449</v>
       </c>
       <c r="T11">
-        <v>0.000808727797144397</v>
+        <v>0.000192052147455563</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1148,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>2.2078336425022</v>
+        <v>0.382301</v>
       </c>
       <c r="H12">
-        <v>2.2078336425022</v>
+        <v>1.146903</v>
       </c>
       <c r="I12">
-        <v>0.02334917856977428</v>
+        <v>0.003262951510160935</v>
       </c>
       <c r="J12">
-        <v>0.02334917856977428</v>
+        <v>0.003745578100904121</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.61121782434689</v>
+        <v>2.839444333333333</v>
       </c>
       <c r="N12">
-        <v>2.61121782434689</v>
+        <v>8.518333</v>
       </c>
       <c r="O12">
-        <v>0.2209152911498101</v>
+        <v>0.2340592040300573</v>
       </c>
       <c r="P12">
-        <v>0.2209152911498101</v>
+        <v>0.3089337888798266</v>
       </c>
       <c r="Q12">
-        <v>5.765134560494464</v>
+        <v>1.085522408077667</v>
       </c>
       <c r="R12">
-        <v>5.765134560494464</v>
+        <v>9.769701672699</v>
       </c>
       <c r="S12">
-        <v>0.00515819058185059</v>
+        <v>0.0007637238332569419</v>
       </c>
       <c r="T12">
-        <v>0.00515819058185059</v>
+        <v>0.001157135634257616</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1210,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>2.2078336425022</v>
+        <v>0.382301</v>
       </c>
       <c r="H13">
-        <v>2.2078336425022</v>
+        <v>1.146903</v>
       </c>
       <c r="I13">
-        <v>0.02334917856977428</v>
+        <v>0.003262951510160935</v>
       </c>
       <c r="J13">
-        <v>0.02334917856977428</v>
+        <v>0.003745578100904121</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.713045432140197</v>
+        <v>0.7156724999999999</v>
       </c>
       <c r="N13">
-        <v>0.713045432140197</v>
+        <v>1.431345</v>
       </c>
       <c r="O13">
-        <v>0.06032535385426639</v>
+        <v>0.05899384387633162</v>
       </c>
       <c r="P13">
-        <v>0.06032535385426639</v>
+        <v>0.05191048929927902</v>
       </c>
       <c r="Q13">
-        <v>1.574285693711646</v>
+        <v>0.2736023124225</v>
       </c>
       <c r="R13">
-        <v>1.574285693711646</v>
+        <v>1.641613874535</v>
       </c>
       <c r="S13">
-        <v>0.001408547459428087</v>
+        <v>0.0001924940519664747</v>
       </c>
       <c r="T13">
-        <v>0.001408547459428087</v>
+        <v>0.0001944347919265972</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1272,61 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.87457660078216</v>
+        <v>2.413647666666666</v>
       </c>
       <c r="H14">
-        <v>1.87457660078216</v>
+        <v>7.240943</v>
       </c>
       <c r="I14">
-        <v>0.01982478342198716</v>
+        <v>0.02060056159661214</v>
       </c>
       <c r="J14">
-        <v>0.01982478342198716</v>
+        <v>0.02364761233573806</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.086332356905009</v>
+        <v>8.104922999999999</v>
       </c>
       <c r="N14">
-        <v>8.086332356905009</v>
+        <v>16.209846</v>
       </c>
       <c r="O14">
-        <v>0.6841231130944074</v>
+        <v>0.6680996714163102</v>
       </c>
       <c r="P14">
-        <v>0.6841231130944074</v>
+        <v>0.5878813544784527</v>
       </c>
       <c r="Q14">
-        <v>15.15844942240178</v>
+        <v>19.562428487463</v>
       </c>
       <c r="R14">
-        <v>15.15844942240178</v>
+        <v>117.374570924778</v>
       </c>
       <c r="S14">
-        <v>0.01356259255107225</v>
+        <v>0.01376322843368803</v>
       </c>
       <c r="T14">
-        <v>0.01356259255107225</v>
+        <v>0.01390199037011506</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1334,61 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.87457660078216</v>
+        <v>2.413647666666666</v>
       </c>
       <c r="H15">
-        <v>1.87457660078216</v>
+        <v>7.240943</v>
       </c>
       <c r="I15">
-        <v>0.01982478342198716</v>
+        <v>0.02060056159661214</v>
       </c>
       <c r="J15">
-        <v>0.01982478342198716</v>
+        <v>0.02364761233573806</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.40940023549704</v>
+        <v>0.4712683333333333</v>
       </c>
       <c r="N15">
-        <v>0.40940023549704</v>
+        <v>1.413805</v>
       </c>
       <c r="O15">
-        <v>0.03463624190151608</v>
+        <v>0.03884728067730096</v>
       </c>
       <c r="P15">
-        <v>0.03463624190151608</v>
+        <v>0.05127436734244167</v>
       </c>
       <c r="Q15">
-        <v>0.767452101817457</v>
+        <v>1.137475713123889</v>
       </c>
       <c r="R15">
-        <v>0.767452101817457</v>
+        <v>10.237281418115</v>
       </c>
       <c r="S15">
-        <v>0.0006866559942491127</v>
+        <v>0.000800275798453619</v>
       </c>
       <c r="T15">
-        <v>0.0006866559942491127</v>
+        <v>0.001212516361674288</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1396,61 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.87457660078216</v>
+        <v>2.413647666666666</v>
       </c>
       <c r="H16">
-        <v>1.87457660078216</v>
+        <v>7.240943</v>
       </c>
       <c r="I16">
-        <v>0.01982478342198716</v>
+        <v>0.02060056159661214</v>
       </c>
       <c r="J16">
-        <v>0.01982478342198716</v>
+        <v>0.02364761233573806</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.61121782434689</v>
+        <v>2.839444333333333</v>
       </c>
       <c r="N16">
-        <v>2.61121782434689</v>
+        <v>8.518333</v>
       </c>
       <c r="O16">
-        <v>0.2209152911498101</v>
+        <v>0.2340592040300573</v>
       </c>
       <c r="P16">
-        <v>0.2209152911498101</v>
+        <v>0.3089337888798266</v>
       </c>
       <c r="Q16">
-        <v>4.894927833065981</v>
+        <v>6.853418189779888</v>
       </c>
       <c r="R16">
-        <v>4.894927833065981</v>
+        <v>61.680763708019</v>
       </c>
       <c r="S16">
-        <v>0.00437959780165022</v>
+        <v>0.004821751049875203</v>
       </c>
       <c r="T16">
-        <v>0.00437959780165022</v>
+        <v>0.007305546476840884</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1458,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>25</v>
       </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.87457660078216</v>
+        <v>2.413647666666666</v>
       </c>
       <c r="H17">
-        <v>1.87457660078216</v>
+        <v>7.240943</v>
       </c>
       <c r="I17">
-        <v>0.01982478342198716</v>
+        <v>0.02060056159661214</v>
       </c>
       <c r="J17">
-        <v>0.01982478342198716</v>
+        <v>0.02364761233573806</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.713045432140197</v>
+        <v>0.7156724999999999</v>
       </c>
       <c r="N17">
-        <v>0.713045432140197</v>
+        <v>1.431345</v>
       </c>
       <c r="O17">
-        <v>0.06032535385426639</v>
+        <v>0.05899384387633162</v>
       </c>
       <c r="P17">
-        <v>0.06032535385426639</v>
+        <v>0.05191048929927902</v>
       </c>
       <c r="Q17">
-        <v>1.336658282384617</v>
+        <v>1.7273812597225</v>
       </c>
       <c r="R17">
-        <v>1.336658282384617</v>
+        <v>10.364287558335</v>
       </c>
       <c r="S17">
-        <v>0.001195937075015569</v>
+        <v>0.001215306314595289</v>
       </c>
       <c r="T17">
-        <v>0.001195937075015569</v>
+        <v>0.001227559127107829</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1520,61 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
         <v>20</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>33.7695906250798</v>
+        <v>1.918319666666666</v>
       </c>
       <c r="H18">
-        <v>33.7695906250798</v>
+        <v>5.754958999999999</v>
       </c>
       <c r="I18">
-        <v>0.3571338829856507</v>
+        <v>0.01637292095317936</v>
       </c>
       <c r="J18">
-        <v>0.3571338829856507</v>
+        <v>0.01879465691693288</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.086332356905009</v>
+        <v>8.104922999999999</v>
       </c>
       <c r="N18">
-        <v>8.086332356905009</v>
+        <v>16.209846</v>
       </c>
       <c r="O18">
-        <v>0.6841231130944074</v>
+        <v>0.6680996714163102</v>
       </c>
       <c r="P18">
-        <v>0.6841231130944074</v>
+        <v>0.5878813544784527</v>
       </c>
       <c r="Q18">
-        <v>273.0721333510189</v>
+        <v>15.547833187719</v>
       </c>
       <c r="R18">
-        <v>273.0721333510189</v>
+        <v>93.28699912631399</v>
       </c>
       <c r="S18">
-        <v>0.2443235438196372</v>
+        <v>0.01093874310894435</v>
       </c>
       <c r="T18">
-        <v>0.2443235438196372</v>
+        <v>0.01104902836528432</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1582,61 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>33.7695906250798</v>
+        <v>1.918319666666666</v>
       </c>
       <c r="H19">
-        <v>33.7695906250798</v>
+        <v>5.754958999999999</v>
       </c>
       <c r="I19">
-        <v>0.3571338829856507</v>
+        <v>0.01637292095317936</v>
       </c>
       <c r="J19">
-        <v>0.3571338829856507</v>
+        <v>0.01879465691693288</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.40940023549704</v>
+        <v>0.4712683333333333</v>
       </c>
       <c r="N19">
-        <v>0.40940023549704</v>
+        <v>1.413805</v>
       </c>
       <c r="O19">
-        <v>0.03463624190151608</v>
+        <v>0.03884728067730096</v>
       </c>
       <c r="P19">
-        <v>0.03463624190151608</v>
+        <v>0.05127436734244167</v>
       </c>
       <c r="Q19">
-        <v>13.82527835454631</v>
+        <v>0.9040433121105554</v>
       </c>
       <c r="R19">
-        <v>13.82527835454631</v>
+        <v>8.136389808994998</v>
       </c>
       <c r="S19">
-        <v>0.01236977556231873</v>
+        <v>0.0006360434557754205</v>
       </c>
       <c r="T19">
-        <v>0.01236977556231873</v>
+        <v>0.0009636841428339789</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1644,61 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>33.7695906250798</v>
+        <v>1.918319666666666</v>
       </c>
       <c r="H20">
-        <v>33.7695906250798</v>
+        <v>5.754958999999999</v>
       </c>
       <c r="I20">
-        <v>0.3571338829856507</v>
+        <v>0.01637292095317936</v>
       </c>
       <c r="J20">
-        <v>0.3571338829856507</v>
+        <v>0.01879465691693288</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.61121782434689</v>
+        <v>2.839444333333333</v>
       </c>
       <c r="N20">
-        <v>2.61121782434689</v>
+        <v>8.518333</v>
       </c>
       <c r="O20">
-        <v>0.2209152911498101</v>
+        <v>0.2340592040300573</v>
       </c>
       <c r="P20">
-        <v>0.2209152911498101</v>
+        <v>0.3089337888798266</v>
       </c>
       <c r="Q20">
-        <v>88.17975696110602</v>
+        <v>5.446961907038554</v>
       </c>
       <c r="R20">
-        <v>88.17975696110602</v>
+        <v>49.022657163347</v>
       </c>
       <c r="S20">
-        <v>0.07889633573923724</v>
+        <v>0.003832232845948207</v>
       </c>
       <c r="T20">
-        <v>0.07889633573923724</v>
+        <v>0.005806304572044516</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1706,309 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.918319666666666</v>
+      </c>
+      <c r="H21">
+        <v>5.754958999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.01637292095317936</v>
+      </c>
+      <c r="J21">
+        <v>0.01879465691693288</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.7156724999999999</v>
+      </c>
+      <c r="N21">
+        <v>1.431345</v>
+      </c>
+      <c r="O21">
+        <v>0.05899384387633162</v>
+      </c>
+      <c r="P21">
+        <v>0.05191048929927902</v>
+      </c>
+      <c r="Q21">
+        <v>1.3728886316425</v>
+      </c>
+      <c r="R21">
+        <v>8.237331789854998</v>
+      </c>
+      <c r="S21">
+        <v>0.0009659015425113817</v>
+      </c>
+      <c r="T21">
+        <v>0.0009756398367700647</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>42.119891</v>
+      </c>
+      <c r="H22">
+        <v>84.23978200000001</v>
+      </c>
+      <c r="I22">
+        <v>0.3594946441318856</v>
+      </c>
+      <c r="J22">
+        <v>0.2751119167742496</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>8.104922999999999</v>
+      </c>
+      <c r="N22">
+        <v>16.209846</v>
+      </c>
+      <c r="O22">
+        <v>0.6680996714163102</v>
+      </c>
+      <c r="P22">
+        <v>0.5878813544784527</v>
+      </c>
+      <c r="Q22">
+        <v>341.378473323393</v>
+      </c>
+      <c r="R22">
+        <v>1365.513893293572</v>
+      </c>
+      <c r="S22">
+        <v>0.2401782536204361</v>
+      </c>
+      <c r="T22">
+        <v>0.1617331662664092</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>42.119891</v>
+      </c>
+      <c r="H23">
+        <v>84.23978200000001</v>
+      </c>
+      <c r="I23">
+        <v>0.3594946441318856</v>
+      </c>
+      <c r="J23">
+        <v>0.2751119167742496</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.4712683333333333</v>
+      </c>
+      <c r="N23">
+        <v>1.413805</v>
+      </c>
+      <c r="O23">
+        <v>0.03884728067730096</v>
+      </c>
+      <c r="P23">
+        <v>0.05127436734244167</v>
+      </c>
+      <c r="Q23">
+        <v>19.84977083175167</v>
+      </c>
+      <c r="R23">
+        <v>119.09862499051</v>
+      </c>
+      <c r="S23">
+        <v>0.01396538934257779</v>
+      </c>
+      <c r="T23">
+        <v>0.01410618948096611</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>33.7695906250798</v>
-      </c>
-      <c r="H21">
-        <v>33.7695906250798</v>
-      </c>
-      <c r="I21">
-        <v>0.3571338829856507</v>
-      </c>
-      <c r="J21">
-        <v>0.3571338829856507</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.713045432140197</v>
-      </c>
-      <c r="N21">
-        <v>0.713045432140197</v>
-      </c>
-      <c r="O21">
-        <v>0.06032535385426639</v>
-      </c>
-      <c r="P21">
-        <v>0.06032535385426639</v>
-      </c>
-      <c r="Q21">
-        <v>24.07925234045757</v>
-      </c>
-      <c r="R21">
-        <v>24.07925234045757</v>
-      </c>
-      <c r="S21">
-        <v>0.02154422786445755</v>
-      </c>
-      <c r="T21">
-        <v>0.02154422786445755</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>42.119891</v>
+      </c>
+      <c r="H24">
+        <v>84.23978200000001</v>
+      </c>
+      <c r="I24">
+        <v>0.3594946441318856</v>
+      </c>
+      <c r="J24">
+        <v>0.2751119167742496</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2.839444333333333</v>
+      </c>
+      <c r="N24">
+        <v>8.518333</v>
+      </c>
+      <c r="O24">
+        <v>0.2340592040300573</v>
+      </c>
+      <c r="P24">
+        <v>0.3089337888798266</v>
+      </c>
+      <c r="Q24">
+        <v>119.5970858205677</v>
+      </c>
+      <c r="R24">
+        <v>717.5825149234061</v>
+      </c>
+      <c r="S24">
+        <v>0.08414303025857785</v>
+      </c>
+      <c r="T24">
+        <v>0.08499136681506043</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>42.119891</v>
+      </c>
+      <c r="H25">
+        <v>84.23978200000001</v>
+      </c>
+      <c r="I25">
+        <v>0.3594946441318856</v>
+      </c>
+      <c r="J25">
+        <v>0.2751119167742496</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.7156724999999999</v>
+      </c>
+      <c r="N25">
+        <v>1.431345</v>
+      </c>
+      <c r="O25">
+        <v>0.05899384387633162</v>
+      </c>
+      <c r="P25">
+        <v>0.05191048929927902</v>
+      </c>
+      <c r="Q25">
+        <v>30.1440476916975</v>
+      </c>
+      <c r="R25">
+        <v>120.57619076679</v>
+      </c>
+      <c r="S25">
+        <v>0.02120797091029385</v>
+      </c>
+      <c r="T25">
+        <v>0.01428119421181382</v>
       </c>
     </row>
   </sheetData>
